--- a/Jogos_do_Dia/2023-07-18_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-07-18_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="81">
   <si>
     <t>League</t>
   </si>
@@ -154,91 +154,109 @@
     <t>17:00:00</t>
   </si>
   <si>
+    <t>18:00:00</t>
+  </si>
+  <si>
     <t>19:00:00</t>
   </si>
   <si>
+    <t>21:30:00</t>
+  </si>
+  <si>
+    <t>Bucheon 1995</t>
+  </si>
+  <si>
     <t>Seoul E-Land</t>
   </si>
   <si>
-    <t>Bucheon 1995</t>
-  </si>
-  <si>
     <t>Anyang</t>
   </si>
   <si>
     <t>Struga</t>
   </si>
   <si>
+    <t>Maccabi Haifa</t>
+  </si>
+  <si>
+    <t>Sheriff</t>
+  </si>
+  <si>
     <t>Tallinna FC Flora</t>
   </si>
   <si>
-    <t>Sheriff</t>
-  </si>
-  <si>
-    <t>Maccabi Haifa</t>
-  </si>
-  <si>
     <t>The New Saints</t>
   </si>
   <si>
+    <t>Zrinjski</t>
+  </si>
+  <si>
     <t>BATE</t>
   </si>
   <si>
-    <t>Zrinjski</t>
-  </si>
-  <si>
     <t>Breidablik</t>
   </si>
   <si>
+    <t>Fylkir</t>
+  </si>
+  <si>
     <t>KR</t>
   </si>
   <si>
-    <t>Fylkir</t>
+    <t>Tombense</t>
   </si>
   <si>
     <t>Chapecoense</t>
   </si>
   <si>
+    <t>Ponte Preta</t>
+  </si>
+  <si>
+    <t>Cheongju</t>
+  </si>
+  <si>
     <t>Gimpo Citizen</t>
   </si>
   <si>
-    <t>Cheongju</t>
-  </si>
-  <si>
     <t>Cheonan City</t>
   </si>
   <si>
     <t>Žalgiris</t>
   </si>
   <si>
+    <t>Hamrun Spartans</t>
+  </si>
+  <si>
+    <t>SSC Farul</t>
+  </si>
+  <si>
     <t>Raków Częstochowa</t>
   </si>
   <si>
-    <t>SSC Farul</t>
-  </si>
-  <si>
-    <t>Hamrun Spartans</t>
-  </si>
-  <si>
     <t>Häcken</t>
   </si>
   <si>
+    <t>Banants</t>
+  </si>
+  <si>
     <t>Partizani Tirana</t>
   </si>
   <si>
-    <t>Banants</t>
-  </si>
-  <si>
     <t>Shamrock Rovers</t>
   </si>
   <si>
+    <t>HK</t>
+  </si>
+  <si>
     <t>FH</t>
   </si>
   <si>
-    <t>HK</t>
+    <t>CRB</t>
   </si>
   <si>
     <t>Ituano</t>
+  </si>
+  <si>
+    <t>Juventude</t>
   </si>
 </sst>
 </file>
@@ -600,7 +618,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI15"/>
+  <dimension ref="A1:AI17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -727,19 +745,19 @@
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G2">
-        <v>2.1</v>
+        <v>1.94</v>
       </c>
       <c r="H2">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I2">
-        <v>3.1</v>
+        <v>3.82</v>
       </c>
       <c r="J2">
         <v>1.07</v>
@@ -757,7 +775,7 @@
         <v>2.05</v>
       </c>
       <c r="O2">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P2">
         <v>1.43</v>
@@ -766,55 +784,55 @@
         <v>2.65</v>
       </c>
       <c r="R2">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S2">
+        <v>1.8</v>
+      </c>
+      <c r="T2">
+        <v>1.18</v>
+      </c>
+      <c r="U2">
+        <v>1.22</v>
+      </c>
+      <c r="V2">
         <v>1.9</v>
       </c>
-      <c r="T2">
-        <v>1.25</v>
-      </c>
-      <c r="U2">
-        <v>1.25</v>
-      </c>
-      <c r="V2">
-        <v>1.68</v>
-      </c>
       <c r="W2">
-        <v>1</v>
+        <v>1.78</v>
       </c>
       <c r="X2">
-        <v>2</v>
+        <v>1.11</v>
       </c>
       <c r="Y2">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="Z2">
-        <v>1.34</v>
+        <v>1.19</v>
       </c>
       <c r="AA2">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="AB2">
-        <v>1.66</v>
+        <v>1.51</v>
       </c>
       <c r="AC2">
-        <v>7.3</v>
+        <v>7.8</v>
       </c>
       <c r="AD2">
-        <v>2.64</v>
+        <v>3.05</v>
       </c>
       <c r="AE2">
-        <v>1.62</v>
+        <v>1.49</v>
       </c>
       <c r="AF2">
-        <v>2.01</v>
+        <v>1.82</v>
       </c>
       <c r="AG2">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="AH2">
-        <v>3.56</v>
+        <v>3.08</v>
       </c>
       <c r="AI2">
         <v>0</v>
@@ -834,19 +852,19 @@
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G3">
-        <v>1.8</v>
+        <v>2.57</v>
       </c>
       <c r="H3">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="J3">
         <v>1.07</v>
@@ -864,7 +882,7 @@
         <v>2.05</v>
       </c>
       <c r="O3">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P3">
         <v>1.43</v>
@@ -873,55 +891,55 @@
         <v>2.65</v>
       </c>
       <c r="R3">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S3">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T3">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="U3">
+        <v>1.25</v>
+      </c>
+      <c r="V3">
+        <v>1.68</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>2</v>
+      </c>
+      <c r="Y3">
         <v>1.22</v>
       </c>
-      <c r="V3">
-        <v>1.9</v>
-      </c>
-      <c r="W3">
-        <v>1.78</v>
-      </c>
-      <c r="X3">
-        <v>1.11</v>
-      </c>
-      <c r="Y3">
-        <v>1.36</v>
-      </c>
       <c r="Z3">
-        <v>1.19</v>
+        <v>1.34</v>
       </c>
       <c r="AA3">
+        <v>2.56</v>
+      </c>
+      <c r="AB3">
+        <v>1.66</v>
+      </c>
+      <c r="AC3">
+        <v>7.3</v>
+      </c>
+      <c r="AD3">
+        <v>2.64</v>
+      </c>
+      <c r="AE3">
+        <v>1.62</v>
+      </c>
+      <c r="AF3">
+        <v>2.01</v>
+      </c>
+      <c r="AG3">
         <v>2.55</v>
       </c>
-      <c r="AB3">
-        <v>1.51</v>
-      </c>
-      <c r="AC3">
-        <v>7.8</v>
-      </c>
-      <c r="AD3">
-        <v>3.05</v>
-      </c>
-      <c r="AE3">
-        <v>1.49</v>
-      </c>
-      <c r="AF3">
-        <v>1.82</v>
-      </c>
-      <c r="AG3">
-        <v>2.25</v>
-      </c>
       <c r="AH3">
-        <v>3.08</v>
+        <v>3.56</v>
       </c>
       <c r="AI3">
         <v>0</v>
@@ -941,19 +959,19 @@
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G4">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="H4">
-        <v>5.5</v>
+        <v>8.17</v>
       </c>
       <c r="I4">
-        <v>10.5</v>
+        <v>5.32</v>
       </c>
       <c r="J4">
         <v>1.04</v>
@@ -968,10 +986,10 @@
         <v>4</v>
       </c>
       <c r="N4">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O4">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P4">
         <v>1.3</v>
@@ -1048,19 +1066,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>3.54</v>
       </c>
       <c r="H5">
-        <v>3.1</v>
+        <v>3.08</v>
       </c>
       <c r="I5">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="J5">
         <v>1.08</v>
@@ -1069,16 +1087,16 @@
         <v>6.05</v>
       </c>
       <c r="L5">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="M5">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="N5">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="O5">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P5">
         <v>1.59</v>
@@ -1117,28 +1135,28 @@
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>4.97</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1155,97 +1173,97 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G6">
-        <v>4.8</v>
+        <v>1.14</v>
       </c>
       <c r="H6">
-        <v>3.8</v>
+        <v>7.9</v>
       </c>
       <c r="I6">
-        <v>1.7</v>
+        <v>17.5</v>
       </c>
       <c r="J6">
+        <v>1.02</v>
+      </c>
+      <c r="K6">
+        <v>13</v>
+      </c>
+      <c r="L6">
+        <v>1.12</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6">
+        <v>1.47</v>
+      </c>
+      <c r="O6">
+        <v>2.57</v>
+      </c>
+      <c r="P6">
+        <v>1.25</v>
+      </c>
+      <c r="Q6">
+        <v>3.72</v>
+      </c>
+      <c r="R6">
+        <v>2.7</v>
+      </c>
+      <c r="S6">
+        <v>1.44</v>
+      </c>
+      <c r="T6">
+        <v>1.01</v>
+      </c>
+      <c r="U6">
         <v>1.06</v>
       </c>
-      <c r="K6">
-        <v>8</v>
-      </c>
-      <c r="L6">
-        <v>1.3</v>
-      </c>
-      <c r="M6">
-        <v>3.4</v>
-      </c>
-      <c r="N6">
+      <c r="V6">
+        <v>6.35</v>
+      </c>
+      <c r="W6">
+        <v>3</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>1.27</v>
+      </c>
+      <c r="AC6">
+        <v>8.9</v>
+      </c>
+      <c r="AD6">
+        <v>5.27</v>
+      </c>
+      <c r="AE6">
+        <v>1.28</v>
+      </c>
+      <c r="AF6">
+        <v>1.5</v>
+      </c>
+      <c r="AG6">
         <v>1.87</v>
       </c>
-      <c r="O6">
-        <v>1.83</v>
-      </c>
-      <c r="P6">
-        <v>1.4</v>
-      </c>
-      <c r="Q6">
-        <v>2.75</v>
-      </c>
-      <c r="R6">
-        <v>1.85</v>
-      </c>
-      <c r="S6">
-        <v>1.85</v>
-      </c>
-      <c r="T6">
-        <v>2.1</v>
-      </c>
-      <c r="U6">
-        <v>1.25</v>
-      </c>
-      <c r="V6">
-        <v>1.17</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>3</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
       <c r="AH6">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -1262,19 +1280,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G7">
-        <v>1.91</v>
+        <v>1.84</v>
       </c>
       <c r="H7">
-        <v>3.3</v>
+        <v>3.38</v>
       </c>
       <c r="I7">
-        <v>4.33</v>
+        <v>4.6</v>
       </c>
       <c r="J7">
         <v>1.06</v>
@@ -1289,10 +1307,10 @@
         <v>2.53</v>
       </c>
       <c r="N7">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="O7">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="P7">
         <v>1.53</v>
@@ -1331,28 +1349,28 @@
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1369,65 +1387,65 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G8">
-        <v>1.1</v>
+        <v>5.3</v>
       </c>
       <c r="H8">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="I8">
-        <v>15</v>
+        <v>1.66</v>
       </c>
       <c r="J8">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="K8">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L8">
-        <v>1.12</v>
+        <v>1.3</v>
       </c>
       <c r="M8">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N8">
-        <v>1.5</v>
+        <v>1.91</v>
       </c>
       <c r="O8">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="P8">
+        <v>1.4</v>
+      </c>
+      <c r="Q8">
+        <v>2.75</v>
+      </c>
+      <c r="R8">
+        <v>1.85</v>
+      </c>
+      <c r="S8">
+        <v>1.85</v>
+      </c>
+      <c r="T8">
+        <v>2.1</v>
+      </c>
+      <c r="U8">
         <v>1.25</v>
       </c>
-      <c r="Q8">
-        <v>3.72</v>
-      </c>
-      <c r="R8">
-        <v>2.7</v>
-      </c>
-      <c r="S8">
-        <v>1.44</v>
-      </c>
-      <c r="T8">
-        <v>1.01</v>
-      </c>
-      <c r="U8">
-        <v>1.06</v>
-      </c>
       <c r="V8">
-        <v>6.35</v>
+        <v>1.17</v>
       </c>
       <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
         <v>3</v>
       </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
       <c r="Y8">
         <v>0</v>
       </c>
@@ -1438,28 +1456,28 @@
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1476,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G9">
         <v>5.7</v>
@@ -1545,28 +1563,28 @@
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>4.04</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AH9">
         <v>1.95</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -1583,97 +1601,97 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G10">
-        <v>2.05</v>
+        <v>1.48</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="I10">
-        <v>3.5</v>
+        <v>7.3</v>
       </c>
       <c r="J10">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="K10">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="L10">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="M10">
-        <v>2.8</v>
+        <v>2.93</v>
       </c>
       <c r="N10">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="O10">
         <v>1.6</v>
       </c>
       <c r="P10">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="Q10">
-        <v>2.5</v>
+        <v>2.68</v>
       </c>
       <c r="R10">
+        <v>2.21</v>
+      </c>
+      <c r="S10">
+        <v>1.62</v>
+      </c>
+      <c r="T10">
+        <v>1.1</v>
+      </c>
+      <c r="U10">
+        <v>1.24</v>
+      </c>
+      <c r="V10">
+        <v>2.51</v>
+      </c>
+      <c r="W10">
+        <v>3</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>1.59</v>
+      </c>
+      <c r="AC10">
+        <v>7.2</v>
+      </c>
+      <c r="AD10">
+        <v>3.11</v>
+      </c>
+      <c r="AE10">
+        <v>1.3</v>
+      </c>
+      <c r="AF10">
+        <v>1.5</v>
+      </c>
+      <c r="AG10">
         <v>1.9</v>
       </c>
-      <c r="S10">
-        <v>1.83</v>
-      </c>
-      <c r="T10">
-        <v>1.36</v>
-      </c>
-      <c r="U10">
-        <v>1.25</v>
-      </c>
-      <c r="V10">
-        <v>1.53</v>
-      </c>
-      <c r="W10">
-        <v>1</v>
-      </c>
-      <c r="X10">
-        <v>1</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>2</v>
-      </c>
       <c r="AH10">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -1690,64 +1708,64 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G11">
+        <v>2.56</v>
+      </c>
+      <c r="H11">
+        <v>3.12</v>
+      </c>
+      <c r="I11">
+        <v>2.88</v>
+      </c>
+      <c r="J11">
+        <v>1.1</v>
+      </c>
+      <c r="K11">
+        <v>6.5</v>
+      </c>
+      <c r="L11">
+        <v>1.4</v>
+      </c>
+      <c r="M11">
+        <v>2.8</v>
+      </c>
+      <c r="N11">
+        <v>2.2</v>
+      </c>
+      <c r="O11">
         <v>1.53</v>
       </c>
-      <c r="H11">
-        <v>3.6</v>
-      </c>
-      <c r="I11">
-        <v>6</v>
-      </c>
-      <c r="J11">
-        <v>1.03</v>
-      </c>
-      <c r="K11">
-        <v>8</v>
-      </c>
-      <c r="L11">
-        <v>1.34</v>
-      </c>
-      <c r="M11">
-        <v>2.93</v>
-      </c>
-      <c r="N11">
-        <v>2.1</v>
-      </c>
-      <c r="O11">
-        <v>1.7</v>
-      </c>
       <c r="P11">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="Q11">
-        <v>2.68</v>
+        <v>2.5</v>
       </c>
       <c r="R11">
-        <v>2.21</v>
+        <v>1.9</v>
       </c>
       <c r="S11">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="T11">
-        <v>1.1</v>
+        <v>1.36</v>
       </c>
       <c r="U11">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="V11">
-        <v>2.51</v>
+        <v>1.53</v>
       </c>
       <c r="W11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1759,28 +1777,28 @@
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -1797,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G12">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H12">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="I12">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="J12">
         <v>1.06</v>
@@ -1824,10 +1842,10 @@
         <v>3.2</v>
       </c>
       <c r="N12">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="O12">
-        <v>1.67</v>
+        <v>1.82</v>
       </c>
       <c r="P12">
         <v>1.4</v>
@@ -1904,97 +1922,97 @@
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G13">
-        <v>1.95</v>
+        <v>2.12</v>
       </c>
       <c r="H13">
-        <v>3.6</v>
+        <v>3.92</v>
       </c>
       <c r="I13">
-        <v>3.1</v>
+        <v>3.02</v>
       </c>
       <c r="J13">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K13">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L13">
         <v>1.15</v>
       </c>
       <c r="M13">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="N13">
-        <v>1.56</v>
+        <v>1.43</v>
       </c>
       <c r="O13">
-        <v>2.27</v>
+        <v>2.62</v>
       </c>
       <c r="P13">
+        <v>1.25</v>
+      </c>
+      <c r="Q13">
+        <v>3.75</v>
+      </c>
+      <c r="R13">
+        <v>1.4</v>
+      </c>
+      <c r="S13">
+        <v>2.85</v>
+      </c>
+      <c r="T13">
+        <v>1.4</v>
+      </c>
+      <c r="U13">
+        <v>1.25</v>
+      </c>
+      <c r="V13">
+        <v>1.57</v>
+      </c>
+      <c r="W13">
+        <v>1.25</v>
+      </c>
+      <c r="X13">
         <v>1.29</v>
       </c>
-      <c r="Q13">
-        <v>3.5</v>
-      </c>
-      <c r="R13">
-        <v>1.53</v>
-      </c>
-      <c r="S13">
-        <v>2.38</v>
-      </c>
-      <c r="T13">
-        <v>1.25</v>
-      </c>
-      <c r="U13">
-        <v>1.2</v>
-      </c>
-      <c r="V13">
-        <v>1.72</v>
-      </c>
-      <c r="W13">
-        <v>1.67</v>
-      </c>
-      <c r="X13">
-        <v>0.71</v>
-      </c>
       <c r="Y13">
-        <v>1.46</v>
+        <v>1.34</v>
       </c>
       <c r="Z13">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="AA13">
-        <v>2.89</v>
+        <v>2.79</v>
       </c>
       <c r="AB13">
-        <v>1.64</v>
+        <v>1.92</v>
       </c>
       <c r="AC13">
-        <v>9.9</v>
+        <v>7.2</v>
       </c>
       <c r="AD13">
-        <v>2.61</v>
+        <v>2.45</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AF13">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AG13">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="AH13">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="AI13">
-        <v>2.06</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -2011,97 +2029,97 @@
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F14" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G14">
-        <v>2.5</v>
+        <v>2.12</v>
       </c>
       <c r="H14">
-        <v>3.5</v>
+        <v>6.9</v>
       </c>
       <c r="I14">
-        <v>2.4</v>
+        <v>2.03</v>
       </c>
       <c r="J14">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K14">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L14">
         <v>1.15</v>
       </c>
       <c r="M14">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="N14">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="O14">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="P14">
+        <v>1.29</v>
+      </c>
+      <c r="Q14">
+        <v>3.5</v>
+      </c>
+      <c r="R14">
+        <v>1.53</v>
+      </c>
+      <c r="S14">
+        <v>2.38</v>
+      </c>
+      <c r="T14">
         <v>1.25</v>
       </c>
-      <c r="Q14">
-        <v>3.75</v>
-      </c>
-      <c r="R14">
-        <v>1.4</v>
-      </c>
-      <c r="S14">
-        <v>2.85</v>
-      </c>
-      <c r="T14">
-        <v>1.4</v>
-      </c>
       <c r="U14">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="V14">
-        <v>1.57</v>
+        <v>1.72</v>
       </c>
       <c r="W14">
-        <v>1.25</v>
+        <v>1.67</v>
       </c>
       <c r="X14">
-        <v>1.29</v>
+        <v>0.71</v>
       </c>
       <c r="Y14">
-        <v>1.34</v>
+        <v>1.46</v>
       </c>
       <c r="Z14">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="AA14">
-        <v>2.79</v>
+        <v>2.89</v>
       </c>
       <c r="AB14">
-        <v>1.92</v>
+        <v>1.64</v>
       </c>
       <c r="AC14">
-        <v>7.2</v>
+        <v>9.9</v>
       </c>
       <c r="AD14">
-        <v>2.45</v>
+        <v>2.61</v>
       </c>
       <c r="AE14">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="AF14">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AG14">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="AH14">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="AI14">
-        <v>1.96</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -2118,97 +2136,311 @@
         <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F15" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G15">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="H15">
         <v>3</v>
       </c>
       <c r="I15">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="J15">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K15">
-        <v>6.5</v>
+        <v>7.75</v>
       </c>
       <c r="L15">
         <v>1.45</v>
       </c>
       <c r="M15">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="N15">
         <v>2.35</v>
       </c>
       <c r="O15">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="P15">
         <v>1.52</v>
       </c>
       <c r="Q15">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="R15">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S15">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="T15">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="U15">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="V15">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="W15">
-        <v>1.11</v>
+        <v>0.89</v>
       </c>
       <c r="X15">
-        <v>0.89</v>
+        <v>1.13</v>
       </c>
       <c r="Y15">
-        <v>1.52</v>
+        <v>1.82</v>
       </c>
       <c r="Z15">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="AA15">
-        <v>2.82</v>
+        <v>3.13</v>
       </c>
       <c r="AB15">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AC15">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE15">
         <v>0</v>
       </c>
       <c r="AF15">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="AG15">
         <v>1.88</v>
       </c>
       <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="2">
+        <v>45125</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16">
+        <v>1.95</v>
+      </c>
+      <c r="H16">
+        <v>3.25</v>
+      </c>
+      <c r="I16">
+        <v>4.2</v>
+      </c>
+      <c r="J16">
+        <v>1.1</v>
+      </c>
+      <c r="K16">
+        <v>6.5</v>
+      </c>
+      <c r="L16">
+        <v>1.45</v>
+      </c>
+      <c r="M16">
+        <v>2.6</v>
+      </c>
+      <c r="N16">
+        <v>2.3</v>
+      </c>
+      <c r="O16">
+        <v>1.5</v>
+      </c>
+      <c r="P16">
+        <v>1.52</v>
+      </c>
+      <c r="Q16">
+        <v>2.35</v>
+      </c>
+      <c r="R16">
+        <v>2.05</v>
+      </c>
+      <c r="S16">
+        <v>1.68</v>
+      </c>
+      <c r="T16">
+        <v>1.25</v>
+      </c>
+      <c r="U16">
+        <v>1.35</v>
+      </c>
+      <c r="V16">
+        <v>1.7</v>
+      </c>
+      <c r="W16">
+        <v>1.11</v>
+      </c>
+      <c r="X16">
+        <v>0.89</v>
+      </c>
+      <c r="Y16">
+        <v>1.52</v>
+      </c>
+      <c r="Z16">
+        <v>1.3</v>
+      </c>
+      <c r="AA16">
+        <v>2.82</v>
+      </c>
+      <c r="AB16">
+        <v>1.38</v>
+      </c>
+      <c r="AC16">
+        <v>8</v>
+      </c>
+      <c r="AD16">
+        <v>4</v>
+      </c>
+      <c r="AE16">
+        <v>1.25</v>
+      </c>
+      <c r="AF16">
+        <v>1.43</v>
+      </c>
+      <c r="AG16">
+        <v>1.88</v>
+      </c>
+      <c r="AH16">
         <v>2.1</v>
       </c>
-      <c r="AI15">
+      <c r="AI16">
         <v>2.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="2">
+        <v>45125</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17">
+        <v>2.56</v>
+      </c>
+      <c r="H17">
+        <v>3.05</v>
+      </c>
+      <c r="I17">
+        <v>2.95</v>
+      </c>
+      <c r="J17">
+        <v>1.09</v>
+      </c>
+      <c r="K17">
+        <v>7.4</v>
+      </c>
+      <c r="L17">
+        <v>1.49</v>
+      </c>
+      <c r="M17">
+        <v>2.48</v>
+      </c>
+      <c r="N17">
+        <v>2.37</v>
+      </c>
+      <c r="O17">
+        <v>1.5</v>
+      </c>
+      <c r="P17">
+        <v>1.53</v>
+      </c>
+      <c r="Q17">
+        <v>2.3</v>
+      </c>
+      <c r="R17">
+        <v>2.05</v>
+      </c>
+      <c r="S17">
+        <v>1.7</v>
+      </c>
+      <c r="T17">
+        <v>1.42</v>
+      </c>
+      <c r="U17">
+        <v>1.32</v>
+      </c>
+      <c r="V17">
+        <v>1.42</v>
+      </c>
+      <c r="W17">
+        <v>1.44</v>
+      </c>
+      <c r="X17">
+        <v>1.44</v>
+      </c>
+      <c r="Y17">
+        <v>1.59</v>
+      </c>
+      <c r="Z17">
+        <v>1.33</v>
+      </c>
+      <c r="AA17">
+        <v>2.92</v>
+      </c>
+      <c r="AB17">
+        <v>1.7</v>
+      </c>
+      <c r="AC17">
+        <v>7</v>
+      </c>
+      <c r="AD17">
+        <v>2.7</v>
+      </c>
+      <c r="AE17">
+        <v>1.14</v>
+      </c>
+      <c r="AF17">
+        <v>1.24</v>
+      </c>
+      <c r="AG17">
+        <v>1.46</v>
+      </c>
+      <c r="AH17">
+        <v>1.8</v>
+      </c>
+      <c r="AI17">
+        <v>2.25</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-07-18_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-07-18_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -184,24 +184,24 @@
     <t>Tallinna FC Flora</t>
   </si>
   <si>
+    <t>Zrinjski</t>
+  </si>
+  <si>
+    <t>BATE</t>
+  </si>
+  <si>
     <t>The New Saints</t>
   </si>
   <si>
-    <t>Zrinjski</t>
-  </si>
-  <si>
-    <t>BATE</t>
-  </si>
-  <si>
     <t>Breidablik</t>
   </si>
   <si>
+    <t>KR</t>
+  </si>
+  <si>
     <t>Fylkir</t>
   </si>
   <si>
-    <t>KR</t>
-  </si>
-  <si>
     <t>Tombense</t>
   </si>
   <si>
@@ -232,22 +232,22 @@
     <t>Raków Częstochowa</t>
   </si>
   <si>
+    <t>Banants</t>
+  </si>
+  <si>
+    <t>Partizani Tirana</t>
+  </si>
+  <si>
     <t>Häcken</t>
   </si>
   <si>
-    <t>Banants</t>
-  </si>
-  <si>
-    <t>Partizani Tirana</t>
-  </si>
-  <si>
     <t>Shamrock Rovers</t>
   </si>
   <si>
+    <t>FH</t>
+  </si>
+  <si>
     <t>HK</t>
-  </si>
-  <si>
-    <t>FH</t>
   </si>
   <si>
     <t>CRB</t>
@@ -751,13 +751,13 @@
         <v>65</v>
       </c>
       <c r="G2">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="H2">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I2">
-        <v>3.82</v>
+        <v>4.4</v>
       </c>
       <c r="J2">
         <v>1.07</v>
@@ -772,10 +772,10 @@
         <v>3</v>
       </c>
       <c r="N2">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="O2">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P2">
         <v>1.43</v>
@@ -799,10 +799,10 @@
         <v>1.9</v>
       </c>
       <c r="W2">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="X2">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Y2">
         <v>1.36</v>
@@ -835,7 +835,7 @@
         <v>3.08</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -858,13 +858,13 @@
         <v>66</v>
       </c>
       <c r="G3">
-        <v>2.57</v>
+        <v>2.14</v>
       </c>
       <c r="H3">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I3">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="J3">
         <v>1.07</v>
@@ -879,10 +879,10 @@
         <v>3</v>
       </c>
       <c r="N3">
-        <v>2.05</v>
+        <v>2.27</v>
       </c>
       <c r="O3">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="P3">
         <v>1.43</v>
@@ -906,10 +906,10 @@
         <v>1.68</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="X3">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y3">
         <v>1.22</v>
@@ -965,13 +965,13 @@
         <v>67</v>
       </c>
       <c r="G4">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="H4">
-        <v>8.17</v>
+        <v>5.4</v>
       </c>
       <c r="I4">
-        <v>5.32</v>
+        <v>11</v>
       </c>
       <c r="J4">
         <v>1.04</v>
@@ -986,10 +986,10 @@
         <v>4</v>
       </c>
       <c r="N4">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="O4">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="P4">
         <v>1.3</v>
@@ -1013,10 +1013,10 @@
         <v>3.3</v>
       </c>
       <c r="W4">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="X4">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="Y4">
         <v>1.61</v>
@@ -1072,13 +1072,13 @@
         <v>68</v>
       </c>
       <c r="G5">
-        <v>3.54</v>
+        <v>2.9</v>
       </c>
       <c r="H5">
-        <v>3.08</v>
+        <v>3.1</v>
       </c>
       <c r="I5">
-        <v>2.22</v>
+        <v>2.5</v>
       </c>
       <c r="J5">
         <v>1.08</v>
@@ -1087,16 +1087,16 @@
         <v>6.05</v>
       </c>
       <c r="L5">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M5">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="N5">
-        <v>2.67</v>
+        <v>2.45</v>
       </c>
       <c r="O5">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="P5">
         <v>1.59</v>
@@ -1120,10 +1120,10 @@
         <v>1.33</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1179,13 +1179,13 @@
         <v>69</v>
       </c>
       <c r="G6">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="H6">
-        <v>7.9</v>
+        <v>9</v>
       </c>
       <c r="I6">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="J6">
         <v>1.02</v>
@@ -1200,10 +1200,10 @@
         <v>5</v>
       </c>
       <c r="N6">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="O6">
-        <v>2.57</v>
+        <v>2.65</v>
       </c>
       <c r="P6">
         <v>1.25</v>
@@ -1286,13 +1286,13 @@
         <v>70</v>
       </c>
       <c r="G7">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="H7">
-        <v>3.38</v>
+        <v>3.3</v>
       </c>
       <c r="I7">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="J7">
         <v>1.06</v>
@@ -1307,10 +1307,10 @@
         <v>2.53</v>
       </c>
       <c r="N7">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O7">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P7">
         <v>1.53</v>
@@ -1393,13 +1393,13 @@
         <v>71</v>
       </c>
       <c r="G8">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="H8">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I8">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="J8">
         <v>1.06</v>
@@ -1414,7 +1414,7 @@
         <v>3.4</v>
       </c>
       <c r="N8">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="O8">
         <v>1.85</v>
@@ -1500,58 +1500,58 @@
         <v>72</v>
       </c>
       <c r="G9">
-        <v>5.7</v>
+        <v>1.48</v>
       </c>
       <c r="H9">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="I9">
-        <v>1.55</v>
+        <v>6.5</v>
       </c>
       <c r="J9">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L9">
-        <v>1.2</v>
+        <v>1.34</v>
       </c>
       <c r="M9">
-        <v>3.95</v>
+        <v>2.93</v>
       </c>
       <c r="N9">
-        <v>1.73</v>
+        <v>2.15</v>
       </c>
       <c r="O9">
-        <v>2.13</v>
+        <v>1.65</v>
       </c>
       <c r="P9">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="Q9">
-        <v>3.22</v>
+        <v>2.68</v>
       </c>
       <c r="R9">
-        <v>1.8</v>
+        <v>2.21</v>
       </c>
       <c r="S9">
-        <v>1.96</v>
+        <v>1.62</v>
       </c>
       <c r="T9">
-        <v>2.48</v>
+        <v>1.1</v>
       </c>
       <c r="U9">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="V9">
-        <v>1.13</v>
+        <v>2.51</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1563,28 +1563,28 @@
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>4.04</v>
+        <v>1.59</v>
       </c>
       <c r="AC9">
-        <v>11</v>
+        <v>7.2</v>
       </c>
       <c r="AD9">
-        <v>1.34</v>
+        <v>3.11</v>
       </c>
       <c r="AE9">
-        <v>1.15</v>
+        <v>1.3</v>
       </c>
       <c r="AF9">
-        <v>1.27</v>
+        <v>1.5</v>
       </c>
       <c r="AG9">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="AH9">
-        <v>1.95</v>
+        <v>2.35</v>
       </c>
       <c r="AI9">
-        <v>2.34</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -1607,58 +1607,58 @@
         <v>73</v>
       </c>
       <c r="G10">
-        <v>1.48</v>
+        <v>2.4</v>
       </c>
       <c r="H10">
-        <v>4.1</v>
+        <v>2.95</v>
       </c>
       <c r="I10">
-        <v>7.3</v>
+        <v>3</v>
       </c>
       <c r="J10">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="K10">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="L10">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="M10">
-        <v>2.93</v>
+        <v>2.8</v>
       </c>
       <c r="N10">
-        <v>2.15</v>
+        <v>2.33</v>
       </c>
       <c r="O10">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="P10">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="Q10">
-        <v>2.68</v>
+        <v>2.5</v>
       </c>
       <c r="R10">
-        <v>2.21</v>
+        <v>1.9</v>
       </c>
       <c r="S10">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="T10">
-        <v>1.1</v>
+        <v>1.36</v>
       </c>
       <c r="U10">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="V10">
-        <v>2.51</v>
+        <v>1.53</v>
       </c>
       <c r="W10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1670,28 +1670,28 @@
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>1.59</v>
+        <v>1.84</v>
       </c>
       <c r="AC10">
-        <v>7.2</v>
+        <v>8.9</v>
       </c>
       <c r="AD10">
-        <v>3.11</v>
+        <v>2.33</v>
       </c>
       <c r="AE10">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AF10">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="AG10">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AH10">
-        <v>2.35</v>
+        <v>2.46</v>
       </c>
       <c r="AI10">
-        <v>3.15</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -1714,58 +1714,58 @@
         <v>74</v>
       </c>
       <c r="G11">
-        <v>2.56</v>
+        <v>5.7</v>
       </c>
       <c r="H11">
-        <v>3.12</v>
+        <v>4.1</v>
       </c>
       <c r="I11">
-        <v>2.88</v>
+        <v>1.55</v>
       </c>
       <c r="J11">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="K11">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="L11">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="M11">
-        <v>2.8</v>
+        <v>3.95</v>
       </c>
       <c r="N11">
-        <v>2.2</v>
+        <v>1.73</v>
       </c>
       <c r="O11">
-        <v>1.53</v>
+        <v>2.13</v>
       </c>
       <c r="P11">
-        <v>1.47</v>
+        <v>1.32</v>
       </c>
       <c r="Q11">
-        <v>2.5</v>
+        <v>3.22</v>
       </c>
       <c r="R11">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S11">
-        <v>1.83</v>
+        <v>1.96</v>
       </c>
       <c r="T11">
-        <v>1.36</v>
+        <v>2.48</v>
       </c>
       <c r="U11">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="V11">
-        <v>1.53</v>
+        <v>1.13</v>
       </c>
       <c r="W11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1777,28 +1777,28 @@
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>1.84</v>
+        <v>4.04</v>
       </c>
       <c r="AC11">
-        <v>8.9</v>
+        <v>11</v>
       </c>
       <c r="AD11">
-        <v>2.33</v>
+        <v>1.34</v>
       </c>
       <c r="AE11">
+        <v>1.15</v>
+      </c>
+      <c r="AF11">
         <v>1.27</v>
       </c>
-      <c r="AF11">
-        <v>1.52</v>
-      </c>
       <c r="AG11">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AH11">
-        <v>2.46</v>
+        <v>1.95</v>
       </c>
       <c r="AI11">
-        <v>3.34</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -1821,13 +1821,13 @@
         <v>75</v>
       </c>
       <c r="G12">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="H12">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I12">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="J12">
         <v>1.06</v>
@@ -1842,10 +1842,10 @@
         <v>3.2</v>
       </c>
       <c r="N12">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="O12">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
       <c r="P12">
         <v>1.4</v>
@@ -1928,91 +1928,91 @@
         <v>76</v>
       </c>
       <c r="G13">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="H13">
-        <v>3.92</v>
+        <v>3.5</v>
       </c>
       <c r="I13">
-        <v>3.02</v>
+        <v>3.1</v>
       </c>
       <c r="J13">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K13">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L13">
         <v>1.15</v>
       </c>
       <c r="M13">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="N13">
+        <v>1.6</v>
+      </c>
+      <c r="O13">
+        <v>2.2</v>
+      </c>
+      <c r="P13">
+        <v>1.29</v>
+      </c>
+      <c r="Q13">
+        <v>3.5</v>
+      </c>
+      <c r="R13">
+        <v>1.53</v>
+      </c>
+      <c r="S13">
+        <v>2.38</v>
+      </c>
+      <c r="T13">
+        <v>1.25</v>
+      </c>
+      <c r="U13">
+        <v>1.2</v>
+      </c>
+      <c r="V13">
+        <v>1.72</v>
+      </c>
+      <c r="W13">
+        <v>1.67</v>
+      </c>
+      <c r="X13">
+        <v>0.71</v>
+      </c>
+      <c r="Y13">
+        <v>1.46</v>
+      </c>
+      <c r="Z13">
         <v>1.43</v>
       </c>
-      <c r="O13">
-        <v>2.62</v>
-      </c>
-      <c r="P13">
-        <v>1.25</v>
-      </c>
-      <c r="Q13">
-        <v>3.75</v>
-      </c>
-      <c r="R13">
-        <v>1.4</v>
-      </c>
-      <c r="S13">
-        <v>2.85</v>
-      </c>
-      <c r="T13">
-        <v>1.4</v>
-      </c>
-      <c r="U13">
-        <v>1.25</v>
-      </c>
-      <c r="V13">
-        <v>1.57</v>
-      </c>
-      <c r="W13">
-        <v>1.25</v>
-      </c>
-      <c r="X13">
-        <v>1.29</v>
-      </c>
-      <c r="Y13">
-        <v>1.34</v>
-      </c>
-      <c r="Z13">
-        <v>1.45</v>
-      </c>
       <c r="AA13">
-        <v>2.79</v>
+        <v>2.89</v>
       </c>
       <c r="AB13">
-        <v>1.92</v>
+        <v>1.64</v>
       </c>
       <c r="AC13">
-        <v>7.2</v>
+        <v>9.9</v>
       </c>
       <c r="AD13">
-        <v>2.45</v>
+        <v>2.61</v>
       </c>
       <c r="AE13">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="AF13">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AG13">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="AH13">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="AI13">
-        <v>1.96</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -2035,91 +2035,91 @@
         <v>77</v>
       </c>
       <c r="G14">
-        <v>2.12</v>
+        <v>2.55</v>
       </c>
       <c r="H14">
-        <v>6.9</v>
+        <v>3.5</v>
       </c>
       <c r="I14">
-        <v>2.03</v>
+        <v>2.35</v>
       </c>
       <c r="J14">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K14">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L14">
         <v>1.15</v>
       </c>
       <c r="M14">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="N14">
+        <v>1.43</v>
+      </c>
+      <c r="O14">
+        <v>2.62</v>
+      </c>
+      <c r="P14">
+        <v>1.25</v>
+      </c>
+      <c r="Q14">
+        <v>3.75</v>
+      </c>
+      <c r="R14">
+        <v>1.4</v>
+      </c>
+      <c r="S14">
+        <v>2.85</v>
+      </c>
+      <c r="T14">
+        <v>1.4</v>
+      </c>
+      <c r="U14">
+        <v>1.25</v>
+      </c>
+      <c r="V14">
         <v>1.57</v>
       </c>
-      <c r="O14">
-        <v>2.15</v>
-      </c>
-      <c r="P14">
+      <c r="W14">
+        <v>1.25</v>
+      </c>
+      <c r="X14">
         <v>1.29</v>
       </c>
-      <c r="Q14">
-        <v>3.5</v>
-      </c>
-      <c r="R14">
-        <v>1.53</v>
-      </c>
-      <c r="S14">
-        <v>2.38</v>
-      </c>
-      <c r="T14">
-        <v>1.25</v>
-      </c>
-      <c r="U14">
-        <v>1.2</v>
-      </c>
-      <c r="V14">
-        <v>1.72</v>
-      </c>
-      <c r="W14">
-        <v>1.67</v>
-      </c>
-      <c r="X14">
-        <v>0.71</v>
-      </c>
       <c r="Y14">
-        <v>1.46</v>
+        <v>1.34</v>
       </c>
       <c r="Z14">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="AA14">
-        <v>2.89</v>
+        <v>2.79</v>
       </c>
       <c r="AB14">
-        <v>1.64</v>
+        <v>1.92</v>
       </c>
       <c r="AC14">
-        <v>9.9</v>
+        <v>7.2</v>
       </c>
       <c r="AD14">
-        <v>2.61</v>
+        <v>2.45</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AF14">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AG14">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="AH14">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="AI14">
-        <v>2.06</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -2142,13 +2142,13 @@
         <v>78</v>
       </c>
       <c r="G15">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I15">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J15">
         <v>1.08</v>
@@ -2163,10 +2163,10 @@
         <v>2.65</v>
       </c>
       <c r="N15">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O15">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="P15">
         <v>1.52</v>
@@ -2205,28 +2205,28 @@
         <v>3.13</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AG15">
         <v>1.88</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -2249,13 +2249,13 @@
         <v>79</v>
       </c>
       <c r="G16">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H16">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I16">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="J16">
         <v>1.1</v>
@@ -2264,16 +2264,16 @@
         <v>6.5</v>
       </c>
       <c r="L16">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="M16">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="N16">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O16">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P16">
         <v>1.52</v>
@@ -2356,13 +2356,13 @@
         <v>80</v>
       </c>
       <c r="G17">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="H17">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I17">
-        <v>2.95</v>
+        <v>2.6</v>
       </c>
       <c r="J17">
         <v>1.09</v>
@@ -2371,13 +2371,13 @@
         <v>7.4</v>
       </c>
       <c r="L17">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="M17">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="N17">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="O17">
         <v>1.5</v>

--- a/Jogos_do_Dia/2023-07-18_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-07-18_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -1334,10 +1334,10 @@
         <v>1.89</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X7">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>1.53</v>
       </c>
       <c r="W10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1934,7 +1934,7 @@
         <v>3.5</v>
       </c>
       <c r="I13">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J13">
         <v>1.03</v>
@@ -1949,10 +1949,10 @@
         <v>4.7</v>
       </c>
       <c r="N13">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="O13">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="P13">
         <v>1.29</v>
@@ -2035,13 +2035,13 @@
         <v>77</v>
       </c>
       <c r="G14">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="H14">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I14">
-        <v>2.35</v>
+        <v>2.9</v>
       </c>
       <c r="J14">
         <v>1.02</v>
@@ -2056,10 +2056,10 @@
         <v>4.75</v>
       </c>
       <c r="N14">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="O14">
-        <v>2.62</v>
+        <v>2.45</v>
       </c>
       <c r="P14">
         <v>1.25</v>
@@ -2145,10 +2145,10 @@
         <v>2.15</v>
       </c>
       <c r="H15">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="I15">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="J15">
         <v>1.08</v>
@@ -2163,10 +2163,10 @@
         <v>2.65</v>
       </c>
       <c r="N15">
-        <v>2.3</v>
+        <v>2.33</v>
       </c>
       <c r="O15">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="P15">
         <v>1.52</v>
@@ -2249,13 +2249,13 @@
         <v>79</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H16">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I16">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="J16">
         <v>1.1</v>
@@ -2267,13 +2267,13 @@
         <v>1.53</v>
       </c>
       <c r="M16">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="N16">
-        <v>2.35</v>
+        <v>2.48</v>
       </c>
       <c r="O16">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="P16">
         <v>1.52</v>
@@ -2356,13 +2356,13 @@
         <v>80</v>
       </c>
       <c r="G17">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H17">
-        <v>3.1</v>
+        <v>2.85</v>
       </c>
       <c r="I17">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="J17">
         <v>1.09</v>
@@ -2371,13 +2371,13 @@
         <v>7.4</v>
       </c>
       <c r="L17">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="M17">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="N17">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="O17">
         <v>1.5</v>
